--- a/中国银行交易账单.xlsx
+++ b/中国银行交易账单.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Bill/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1180" windowWidth="27160" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="27160" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>开</t>
     <rPh sb="0" eb="1">
@@ -157,6 +157,16 @@
     <t>说明</t>
     <rPh sb="0" eb="1">
       <t>shuo'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底仓变动</t>
+    <rPh sb="0" eb="1">
+      <t>di'cang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'dong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,11 +494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,9 +506,10 @@
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="14.83203125" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,6 +553,9 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
